--- a/Steckkarte/an_Prof/Bestellung_Steckarte.xlsx
+++ b/Steckkarte/an_Prof/Bestellung_Steckarte.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -43,12 +43,6 @@
     <t>963-EMK107BJ105KA-T</t>
   </si>
   <si>
-    <t>MLCC - SMD/SMT 25V 1.8uF X7R 1206 10% Tol</t>
-  </si>
-  <si>
-    <t>581-12063C185K4Z2A</t>
-  </si>
-  <si>
     <t>MLCC - SMD/SMT 2.2uF 16V X5R +/-10% 0603 Gen Purp</t>
   </si>
   <si>
@@ -136,24 +130,12 @@
     <t>667-ERJ-PB3B4700V</t>
   </si>
   <si>
-    <t>Dickfilmwiderstände - SMD 150 OHM 1%</t>
-  </si>
-  <si>
-    <t>603-RC0603FR-07150RL</t>
-  </si>
-  <si>
     <t>Dickfilmwiderstände - SMD 1/10Watt 22ohms 1% Commercial Use</t>
   </si>
   <si>
     <t>71-CRCW060322R0FKEAC</t>
   </si>
   <si>
-    <t xml:space="preserve">EXB-N8V301JX </t>
-  </si>
-  <si>
-    <t xml:space="preserve">667-EXB-N8V301JX </t>
-  </si>
-  <si>
     <t xml:space="preserve">EXB-N8V103JX </t>
   </si>
   <si>
@@ -254,6 +236,15 @@
   </si>
   <si>
     <t>bei CONRAD:</t>
+  </si>
+  <si>
+    <t>1560983</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-07160RL</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 160 OHM 1%</t>
   </si>
 </sst>
 </file>
@@ -303,12 +294,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -323,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -344,6 +341,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -648,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H48"/>
+  <dimension ref="B3:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +666,7 @@
   <sheetData>
     <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -676,17 +678,17 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5"/>
@@ -713,8 +715,8 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5">
-        <f>SUM(F5:F43)</f>
-        <v>60.03</v>
+        <f>SUM(F5:F41)</f>
+        <v>59.43</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -731,13 +733,13 @@
         <v>0.04</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ref="F6:F39" si="0">B6*E6</f>
+        <f t="shared" ref="F6:F37" si="0">B6*E6</f>
         <v>0.12</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="B7" s="12">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -757,7 +759,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -766,17 +768,17 @@
         <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>1.7999999999999998</v>
+        <v>0.72</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
-        <v>6</v>
+      <c r="B9" s="12">
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -785,17 +787,17 @@
         <v>12</v>
       </c>
       <c r="E9" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>1.76</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -804,30 +806,30 @@
         <v>14</v>
       </c>
       <c r="E10" s="1">
-        <v>0.11</v>
+        <v>0.59</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>1.43</v>
+        <v>1.77</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="1">
-        <v>0.59</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>1.77</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -836,36 +838,36 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E12" s="1">
-        <v>1.1100000000000001</v>
+        <v>3.15</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>1.1100000000000001</v>
+        <v>3.15</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1">
-        <v>3.15</v>
+        <v>1.3</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>3.15</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -874,36 +876,36 @@
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E14" s="1">
-        <v>1.3</v>
+        <v>0.45</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
+        <v>1.35</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="1">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>0.52</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -914,15 +916,15 @@
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="1">
-        <v>0.52</v>
+        <v>0.18</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.18</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -937,11 +939,11 @@
         <v>25</v>
       </c>
       <c r="E17" s="1">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -956,11 +958,11 @@
         <v>27</v>
       </c>
       <c r="E18" s="1">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -971,21 +973,21 @@
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="1">
-        <v>0.68</v>
+        <v>0.12</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>0.12</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>30</v>
@@ -994,17 +996,17 @@
         <v>31</v>
       </c>
       <c r="E20" s="1">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>32</v>
@@ -1017,13 +1019,13 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.09</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>34</v>
@@ -1036,13 +1038,13 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>36</v>
@@ -1051,144 +1053,144 @@
         <v>37</v>
       </c>
       <c r="E23" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <v>15</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="1">
         <v>0.09</v>
       </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.27</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.23</v>
-      </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.46</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1">
         <v>0.09</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>1.6199999999999999</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.18</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E28" s="1">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E29" s="1">
-        <v>0.09</v>
+        <v>3.42</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>10.26</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E30" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>1.71</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1197,74 +1199,74 @@
         <v>3</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1">
-        <v>3.42</v>
+        <v>1.25</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>10.26</v>
+        <v>3.75</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E32" s="1">
-        <v>0.56999999999999995</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>1.71</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E33" s="1">
-        <v>1.25</v>
+        <v>2.61</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>2.61</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1">
-        <v>2.2999999999999998</v>
+        <v>1.26</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>3.7800000000000002</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1273,36 +1275,36 @@
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E35" s="1">
-        <v>2.61</v>
+        <v>2.21</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>2.61</v>
+        <v>2.21</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E36" s="1">
-        <v>1.26</v>
+        <v>0.19</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>3.7800000000000002</v>
+        <v>4.75</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1310,113 +1312,89 @@
       <c r="B37" s="9">
         <v>1</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>2.81</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="10"/>
+      <c r="C39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2.21</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="0"/>
-        <v>2.21</v>
-      </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="9">
-        <v>25</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="D40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F40" s="1">
+        <f>B40*E40</f>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
+        <v>3</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="0"/>
-        <v>4.75</v>
-      </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="9">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2.81</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" si="0"/>
-        <v>2.81</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="D41" s="3">
+        <v>1560827</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F41" s="1">
+        <f>B41*E41</f>
+        <v>1.53</v>
+      </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="11">
-        <v>3</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1560983</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="F42" s="1">
-        <f>B42*E42</f>
-        <v>1.0499999999999998</v>
-      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="10">
-        <v>3</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1560827</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="F43" s="1">
-        <f>B43*E43</f>
-        <v>1.53</v>
-      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -1440,20 +1418,6 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
